--- a/biology/Zoologie/Heliconius_numata/Heliconius_numata.xlsx
+++ b/biology/Zoologie/Heliconius_numata/Heliconius_numata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius numata est un insecte lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae, tribu des Heliconiini et au genre Heliconius.
 </t>
@@ -511,13 +523,12 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconius numata a été décrit par Pieter Cramer en 1780 sous le nom de Papilio numata[1].
-La localité type est le Surinam
-Noms vernaculaires
-Il se nomme Numata Longwing en anglais.
-</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Heliconius numata a été décrit par Pieter Cramer en 1780 sous le nom de Papilio numata.
+La localité type est le Surinam</t>
         </is>
       </c>
     </row>
@@ -542,19 +553,58 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme Numata Longwing en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Heliconius_numata</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_numata</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sous-espèces[2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sous-espèces
 Heliconius numata numata présent en Guyane, Guyana et au Surinam.
 Heliconius numata aristiona Hewitson, 1853 ; présent en Bolivie et au Pérou.
 Heliconius numata arcuella Druce, 1874 ; présent au Pérou.
 Heliconius numata aulicus Weymer, 1883; présent au Venezuela
 Heliconius numata aurora Bates, 1862; présent au Brésil.
 Heliconius numata bicoloratus Butler, 1873 ; présent au Pérou.
-Heliconius numata ethra(Hübner, [1831]); présent au Brésil.
+Heliconius numata ethra(Hübner, ); présent au Brésil.
 Heliconius numata euphone Felderr, 1862; présent en Colombie et en Équateur
 Heliconius numata geminatus Weymer, 1894; présent au Brésil.
 Heliconius numata holzingeri Fernández &amp; Brown, 1976; présent au Venezuela
@@ -579,39 +629,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Heliconius_numata</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_numata</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un très grand papillon d'une envergure d'environ 78 mm, aux ailes allongées et arrondies de couleur marron et orange, à l'ornementation très diversifiée du fait de sa capacité de mimétisme avec plusieurs espèces[3],[4].
-Chenilles
-La chenille est blanche avec des taches noires et des épines noires[5].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -633,12 +650,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Mimétisme</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconus numata pratique le mimétisme ; il imite plusieurs espèces du genre Melinaea, ce qui est un mimétisme müllerien. Les études faites par Mathieu Joron et ses collègues chercheurs du CNRS et du MNHN, ont découvert chez H. numata (sur le chromosome 15) un supergène, groupement d'une trentaine de gènes immobilisé par des inversions de séquences génétiques, qui de ce fait échappe aux recombinaisons chromosomiques. Ce groupe de gènes est donc transmis en bloc d'une génération à l'autre, évitant ainsi les formes intermédiaires. Sept formes mimétiques sont présentes chez Heliconus numata[6],[7],[8].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un très grand papillon d'une envergure d'environ 78 mm, aux ailes allongées et arrondies de couleur marron et orange, à l'ornementation très diversifiée du fait de sa capacité de mimétisme avec plusieurs espèces,.
 </t>
         </is>
       </c>
@@ -664,16 +683,158 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenilles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est blanche avec des taches noires et des épines noires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Heliconius_numata</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_numata</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Mimétisme</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconus numata pratique le mimétisme ; il imite plusieurs espèces du genre Melinaea, ce qui est un mimétisme müllerien. Les études faites par Mathieu Joron et ses collègues chercheurs du CNRS et du MNHN, ont découvert chez H. numata (sur le chromosome 15) un supergène, groupement d'une trentaine de gènes immobilisé par des inversions de séquences génétiques, qui de ce fait échappe aux recombinaisons chromosomiques. Ce groupe de gènes est donc transmis en bloc d'une génération à l'autre, évitant ainsi les formes intermédiaires. Sept formes mimétiques sont présentes chez Heliconus numata.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Heliconius_numata</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_numata</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il réside en Guyane, Guyana et au Surinam, au Guatemala, Venezuela, en Équateur, Colombie, Bolivie, au Brésil et au Pérou[2].
-Biotope
-Il réside dans la forêt tropicale.
-Plantes hôtes
-Les plantes hôtes sont des Passiflora[5].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en Guyane, Guyana et au Surinam, au Guatemala, Venezuela, en Équateur, Colombie, Bolivie, au Brésil et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Heliconius_numata</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_numata</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Heliconius_numata</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_numata</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes sont des Passiflora.
 </t>
         </is>
       </c>
